--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_7_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_7_7.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9431767865243019</v>
+        <v>0.9401989782549441</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7784415977984326</v>
+        <v>0.7802672187975046</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5514035603806255</v>
+        <v>0.775346814921323</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9522840988337912</v>
+        <v>0.9914065699831355</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6988008755089304</v>
+        <v>0.9083621270898137</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3799770901588325</v>
+        <v>0.3998897077675744</v>
       </c>
       <c r="H2" t="n">
-        <v>1.481562055704518</v>
+        <v>1.469354119677511</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9003748492055079</v>
+        <v>2.392684075235128</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04824810683138049</v>
+        <v>0.08513118318487059</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4743114536317449</v>
+        <v>1.238907629209999</v>
       </c>
       <c r="L2" t="n">
-        <v>2.589711178457269</v>
+        <v>0.54024800488028</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6164228176818509</v>
+        <v>0.6323683323566847</v>
       </c>
       <c r="N2" t="n">
-        <v>1.033262368863823</v>
+        <v>1.035005476143447</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6426652132017109</v>
+        <v>0.6592895614480181</v>
       </c>
       <c r="P2" t="n">
-        <v>131.9352886342697</v>
+        <v>131.8331330009518</v>
       </c>
       <c r="Q2" t="n">
-        <v>211.1622172507028</v>
+        <v>211.0600616173848</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9433523147019173</v>
+        <v>0.940100033870753</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7782723650863648</v>
+        <v>0.7802116584322819</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5421011537691978</v>
+        <v>0.7749138310759669</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9498848160242843</v>
+        <v>0.9914114344385142</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6921023753823738</v>
+        <v>0.908193359775808</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3788033324268858</v>
+        <v>0.4005513493202573</v>
       </c>
       <c r="H3" t="n">
-        <v>1.48269371562936</v>
+        <v>1.469725652095587</v>
       </c>
       <c r="I3" t="n">
-        <v>0.919045645962431</v>
+        <v>2.397295599221555</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05067415036157719</v>
+        <v>0.08508299324893902</v>
       </c>
       <c r="K3" t="n">
-        <v>0.484859875170313</v>
+        <v>1.241189296235247</v>
       </c>
       <c r="L3" t="n">
-        <v>2.586698627404418</v>
+        <v>0.5389012900428143</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6154700093642953</v>
+        <v>0.6328912618453958</v>
       </c>
       <c r="N3" t="n">
-        <v>1.033159620662292</v>
+        <v>1.035063394807364</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6416718418614917</v>
+        <v>0.6598347531276769</v>
       </c>
       <c r="P3" t="n">
-        <v>131.9414762407669</v>
+        <v>131.8298266153159</v>
       </c>
       <c r="Q3" t="n">
-        <v>211.1684048571999</v>
+        <v>211.056755231749</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9434835252734904</v>
+        <v>0.9400018742257964</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7780626157658883</v>
+        <v>0.7801563935813256</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5324890151657996</v>
+        <v>0.7744849099047453</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9468268827971005</v>
+        <v>0.9914161238137246</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6849951074827779</v>
+        <v>0.9080261124843672</v>
       </c>
       <c r="G4" t="n">
-        <v>0.377925926730607</v>
+        <v>0.4012077433180664</v>
       </c>
       <c r="H4" t="n">
-        <v>1.484096310301193</v>
+        <v>1.470095208408404</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9383381036843877</v>
+        <v>2.401863853419926</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05376619065469601</v>
+        <v>0.08503653775220819</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4960520012248081</v>
+        <v>1.243450413159401</v>
       </c>
       <c r="L4" t="n">
-        <v>2.583585146315564</v>
+        <v>0.5375629116762273</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6147568029152723</v>
+        <v>0.6334096173236292</v>
       </c>
       <c r="N4" t="n">
-        <v>1.033082814474054</v>
+        <v>1.035120854111729</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6409282727373929</v>
+        <v>0.6603751760717624</v>
       </c>
       <c r="P4" t="n">
-        <v>131.9461141271911</v>
+        <v>131.8265518453732</v>
       </c>
       <c r="Q4" t="n">
-        <v>211.1730427436242</v>
+        <v>211.0534804618063</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9435715597033846</v>
+        <v>0.9399044116043904</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7778136192419571</v>
+        <v>0.7801014445875691</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5225766317365912</v>
+        <v>0.7740595877882498</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9431329242458982</v>
+        <v>0.9914207300642226</v>
       </c>
       <c r="F5" t="n">
-        <v>0.677492162598984</v>
+        <v>0.9078602845686921</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3773372400925438</v>
+        <v>0.401859476316182</v>
       </c>
       <c r="H5" t="n">
-        <v>1.485761351203244</v>
+        <v>1.47046265258267</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9582331807449931</v>
+        <v>2.406393775640382</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05750135026507994</v>
+        <v>0.08499090573400696</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5078672171566747</v>
+        <v>1.245692340687194</v>
       </c>
       <c r="L5" t="n">
-        <v>2.580375960811895</v>
+        <v>0.536241797442107</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6142778199581552</v>
+        <v>0.63392387265048</v>
       </c>
       <c r="N5" t="n">
-        <v>1.033031282124848</v>
+        <v>1.035177905402308</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6404288984841601</v>
+        <v>0.6609113243125325</v>
       </c>
       <c r="P5" t="n">
-        <v>131.9492319106771</v>
+        <v>131.823305625753</v>
       </c>
       <c r="Q5" t="n">
-        <v>211.1761605271102</v>
+        <v>211.050234242186</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9436176458451804</v>
+        <v>0.9398077429009865</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7775266274780708</v>
+        <v>0.7800467931771139</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5123715565134039</v>
+        <v>0.7736382690430477</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9388260750769468</v>
+        <v>0.9914252082417753</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6696059065684647</v>
+        <v>0.9076959705389416</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3770290618501481</v>
+        <v>0.4025059003809624</v>
       </c>
       <c r="H6" t="n">
-        <v>1.487680466449828</v>
+        <v>1.470828106816031</v>
       </c>
       <c r="I6" t="n">
-        <v>0.97871571750566</v>
+        <v>2.410881059681737</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06185623645042922</v>
+        <v>0.08494654247593325</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5202860499400304</v>
+        <v>1.247913801078835</v>
       </c>
       <c r="L6" t="n">
-        <v>2.577075130335201</v>
+        <v>0.5349364991532939</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6140269227404838</v>
+        <v>0.6344335271570714</v>
       </c>
       <c r="N6" t="n">
-        <v>1.033004304871114</v>
+        <v>1.035234491960398</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6401673200525034</v>
+        <v>0.6614426758665999</v>
       </c>
       <c r="P6" t="n">
-        <v>131.950866014739</v>
+        <v>131.8200910457988</v>
       </c>
       <c r="Q6" t="n">
-        <v>211.1777946311721</v>
+        <v>211.0470196622318</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9436231671625339</v>
+        <v>0.9397118172659943</v>
       </c>
       <c r="C7" t="n">
-        <v>0.777202857849978</v>
+        <v>0.7799924458386263</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5018824259145862</v>
+        <v>0.77322078828346</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9339292233211443</v>
+        <v>0.9914294815870494</v>
       </c>
       <c r="F7" t="n">
-        <v>0.66134937618995</v>
+        <v>0.9075330932210863</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3769921407755812</v>
+        <v>0.4031473555438519</v>
       </c>
       <c r="H7" t="n">
-        <v>1.489845515443706</v>
+        <v>1.471191527718744</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9997683798701242</v>
+        <v>2.415327466995449</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06680770589514143</v>
+        <v>0.0849042083976168</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5332879699569131</v>
+        <v>1.250115837696533</v>
       </c>
       <c r="L7" t="n">
-        <v>2.573682167359995</v>
+        <v>0.5336442173799701</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6139968573010623</v>
+        <v>0.6349388596895389</v>
       </c>
       <c r="N7" t="n">
-        <v>1.033001072880468</v>
+        <v>1.035290643551613</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6401359746650819</v>
+        <v>0.6619695214511571</v>
       </c>
       <c r="P7" t="n">
-        <v>131.9510618770011</v>
+        <v>131.8169062747141</v>
       </c>
       <c r="Q7" t="n">
-        <v>211.1779904934341</v>
+        <v>211.0438348911471</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9435891219213954</v>
+        <v>0.9396166472924945</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7768435110261601</v>
+        <v>0.7799383872967054</v>
       </c>
       <c r="D8" t="n">
-        <v>0.491118990201856</v>
+        <v>0.7728070507088648</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9284642557873847</v>
+        <v>0.9914337405918842</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6527355032771989</v>
+        <v>0.9073716769894131</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3772198014598384</v>
+        <v>0.403783757594863</v>
       </c>
       <c r="H8" t="n">
-        <v>1.492248469309216</v>
+        <v>1.471553017437485</v>
       </c>
       <c r="I8" t="n">
-        <v>1.021371598154704</v>
+        <v>2.41973400726201</v>
       </c>
       <c r="J8" t="n">
-        <v>0.07233362767288179</v>
+        <v>0.08486201638347754</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5468526129137928</v>
+        <v>1.252298121009615</v>
       </c>
       <c r="L8" t="n">
-        <v>2.570207067786084</v>
+        <v>0.5323627962067176</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6141822217060978</v>
+        <v>0.6354398142978318</v>
       </c>
       <c r="N8" t="n">
-        <v>1.03302100180211</v>
+        <v>1.035346352804393</v>
       </c>
       <c r="O8" t="n">
-        <v>0.640329230416597</v>
+        <v>0.662491802734244</v>
       </c>
       <c r="P8" t="n">
-        <v>131.9498544673677</v>
+        <v>131.8137515955967</v>
       </c>
       <c r="Q8" t="n">
-        <v>211.1767830838007</v>
+        <v>211.0406802120297</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9435168903969952</v>
+        <v>0.9395221994593005</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7764498308820524</v>
+        <v>0.7798846445952963</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4800899766264992</v>
+        <v>0.7723970381294759</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9224533587285969</v>
+        <v>0.9914377990710413</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6437771115046551</v>
+        <v>0.9072116706936619</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3777028139960985</v>
+        <v>0.4044153306903231</v>
       </c>
       <c r="H9" t="n">
-        <v>1.494881010245594</v>
+        <v>1.471912395129271</v>
       </c>
       <c r="I9" t="n">
-        <v>1.043507855952967</v>
+        <v>2.424100874212978</v>
       </c>
       <c r="J9" t="n">
-        <v>0.07841156807339139</v>
+        <v>0.0848218108855676</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5609597848088553</v>
+        <v>1.254461342549273</v>
       </c>
       <c r="L9" t="n">
-        <v>2.566645823572177</v>
+        <v>0.5310990829976808</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6145753118992809</v>
+        <v>0.6359365775691183</v>
       </c>
       <c r="N9" t="n">
-        <v>1.033063283670052</v>
+        <v>1.035401639340897</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6407390552731126</v>
+        <v>0.6630097142464307</v>
       </c>
       <c r="P9" t="n">
-        <v>131.9472951978888</v>
+        <v>131.8106257656709</v>
       </c>
       <c r="Q9" t="n">
-        <v>211.1742238143218</v>
+        <v>211.037554382104</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9434075438649099</v>
+        <v>0.9394284693306931</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7760229760193375</v>
+        <v>0.7798312524632508</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4688025729883625</v>
+        <v>0.7719906867159906</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9159175003674312</v>
+        <v>0.9914417438383335</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6344855041173895</v>
+        <v>0.907053056769899</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3784340147596472</v>
+        <v>0.4050421044919084</v>
       </c>
       <c r="H10" t="n">
-        <v>1.497735390678056</v>
+        <v>1.472269428562107</v>
       </c>
       <c r="I10" t="n">
-        <v>1.066162726680947</v>
+        <v>2.428428747666698</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08502032500215315</v>
+        <v>0.08478273187912801</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5755916859270145</v>
+        <v>1.256605739772913</v>
       </c>
       <c r="L10" t="n">
-        <v>2.563005625451057</v>
+        <v>0.529850317641947</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6151699072286023</v>
+        <v>0.6364291826212155</v>
       </c>
       <c r="N10" t="n">
-        <v>1.03312729139615</v>
+        <v>1.035456505757643</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6413589637565853</v>
+        <v>0.6635232905154289</v>
       </c>
       <c r="P10" t="n">
-        <v>131.943427109661</v>
+        <v>131.8075285111416</v>
       </c>
       <c r="Q10" t="n">
-        <v>211.170355726094</v>
+        <v>211.0344571275747</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9432622576175997</v>
+        <v>0.9393355623418167</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7755641010944774</v>
+        <v>0.7797781665468508</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4572663474887134</v>
+        <v>0.7715883137797523</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9088779512142788</v>
+        <v>0.9914455947508884</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6248736731530856</v>
+        <v>0.9068960014688093</v>
       </c>
       <c r="G11" t="n">
-        <v>0.379405544564392</v>
+        <v>0.4056633739543226</v>
       </c>
       <c r="H11" t="n">
-        <v>1.50080388941352</v>
+        <v>1.472624414329511</v>
       </c>
       <c r="I11" t="n">
-        <v>1.089317006067249</v>
+        <v>2.432714248077056</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09213839070530237</v>
+        <v>0.08474458264866924</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5907278571374881</v>
+        <v>1.258729065037332</v>
       </c>
       <c r="L11" t="n">
-        <v>2.559288169671399</v>
+        <v>0.5286086917511883</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6159590445511715</v>
+        <v>0.6369170856197238</v>
       </c>
       <c r="N11" t="n">
-        <v>1.033212337004332</v>
+        <v>1.035510890336498</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6421816962887157</v>
+        <v>0.6640319645546822</v>
       </c>
       <c r="P11" t="n">
-        <v>131.9382992151086</v>
+        <v>131.8044631829772</v>
       </c>
       <c r="Q11" t="n">
-        <v>211.1652278315416</v>
+        <v>211.0313917994103</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9430821553428951</v>
+        <v>0.9392433247016625</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7750743150367282</v>
+        <v>0.7797253738419408</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4454899865915224</v>
+        <v>0.7711893883349489</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9013543466568287</v>
+        <v>0.9914493209059898</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6149535019803118</v>
+        <v>0.9067402065792288</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3806098893046366</v>
+        <v>0.4062801674787485</v>
       </c>
       <c r="H12" t="n">
-        <v>1.504079091036946</v>
+        <v>1.472977439390333</v>
       </c>
       <c r="I12" t="n">
-        <v>1.112953259569382</v>
+        <v>2.436963030744673</v>
       </c>
       <c r="J12" t="n">
-        <v>0.09974591078923585</v>
+        <v>0.0847076693332771</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6063495851793089</v>
+        <v>1.260835350038975</v>
       </c>
       <c r="L12" t="n">
-        <v>2.555496803098153</v>
+        <v>0.5273851318705863</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6169358875155802</v>
+        <v>0.6374011040771332</v>
       </c>
       <c r="N12" t="n">
-        <v>1.03331776272611</v>
+        <v>1.035564883101466</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6432001254804629</v>
+        <v>0.6645365886798799</v>
       </c>
       <c r="P12" t="n">
-        <v>131.9319606819966</v>
+        <v>131.801424579372</v>
       </c>
       <c r="Q12" t="n">
-        <v>211.1588892984296</v>
+        <v>211.028353195805</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9428684082236394</v>
+        <v>0.9391518786887232</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7745547086743731</v>
+        <v>0.779672928511884</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4334818226820339</v>
+        <v>0.7707942995566941</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8933672562132363</v>
+        <v>0.9914529403291543</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6047366965402012</v>
+        <v>0.9065859178476673</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3820392172753148</v>
+        <v>0.406891667388344</v>
       </c>
       <c r="H13" t="n">
-        <v>1.507553701174582</v>
+        <v>1.473328141553911</v>
       </c>
       <c r="I13" t="n">
-        <v>1.137054763313849</v>
+        <v>2.441170950733447</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1078220863109348</v>
+        <v>0.0846718133623975</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6224384361942635</v>
+        <v>1.262921272382678</v>
       </c>
       <c r="L13" t="n">
-        <v>2.55163447388755</v>
+        <v>0.5261688651475732</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6180932108309513</v>
+        <v>0.6378806059039137</v>
       </c>
       <c r="N13" t="n">
-        <v>1.03344288299104</v>
+        <v>1.035618412474894</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6444067184453589</v>
+        <v>0.665036503892132</v>
       </c>
       <c r="P13" t="n">
-        <v>131.9244640252413</v>
+        <v>131.798416604926</v>
       </c>
       <c r="Q13" t="n">
-        <v>211.1513926416744</v>
+        <v>211.0253452213591</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.942622043071102</v>
+        <v>0.9390611825658508</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7740064086512533</v>
+        <v>0.7796207999003297</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4212498461490799</v>
+        <v>0.7704029940924727</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8849353181357853</v>
+        <v>0.991456392572299</v>
       </c>
       <c r="F14" t="n">
-        <v>0.59423441600435</v>
+        <v>0.9064330581018482</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3836866621847396</v>
+        <v>0.407498152779609</v>
       </c>
       <c r="H14" t="n">
-        <v>1.511220185953873</v>
+        <v>1.473676725819405</v>
       </c>
       <c r="I14" t="n">
-        <v>1.161605479845813</v>
+        <v>2.445338576277982</v>
       </c>
       <c r="J14" t="n">
-        <v>0.116348071133884</v>
+        <v>0.08463761356755839</v>
       </c>
       <c r="K14" t="n">
-        <v>0.638976837346076</v>
+        <v>1.264987875406955</v>
       </c>
       <c r="L14" t="n">
-        <v>2.547704903669034</v>
+        <v>0.52496994101489</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6194244604346357</v>
+        <v>0.6383558198838709</v>
       </c>
       <c r="N14" t="n">
-        <v>1.033587096738867</v>
+        <v>1.035671502888282</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6457946421007388</v>
+        <v>0.6655319487150445</v>
       </c>
       <c r="P14" t="n">
-        <v>131.9158580867688</v>
+        <v>131.7954377587353</v>
       </c>
       <c r="Q14" t="n">
-        <v>211.1427867032018</v>
+        <v>211.0223663751684</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9423441532930111</v>
+        <v>0.938971198859016</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7734304508361712</v>
+        <v>0.779568942428904</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4088021602082886</v>
+        <v>0.7700151495028507</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8760775080690033</v>
+        <v>0.9914597996778908</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5834579611012283</v>
+        <v>0.9062815206726718</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3855449124103978</v>
+        <v>0.4080998742415502</v>
       </c>
       <c r="H15" t="n">
-        <v>1.515071618515369</v>
+        <v>1.474023496969611</v>
       </c>
       <c r="I15" t="n">
-        <v>1.186589145256548</v>
+        <v>2.449469341541469</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1253046779661748</v>
+        <v>0.08460386092982299</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6559469928826609</v>
+        <v>1.267036601235646</v>
       </c>
       <c r="L15" t="n">
-        <v>2.543705868926706</v>
+        <v>0.5237805075647863</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6209226299712371</v>
+        <v>0.6388269517181865</v>
       </c>
       <c r="N15" t="n">
-        <v>1.033749763926042</v>
+        <v>1.035724176277649</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6473565918161518</v>
+        <v>0.6660231376069242</v>
       </c>
       <c r="P15" t="n">
-        <v>131.9061951769154</v>
+        <v>131.7924866894528</v>
       </c>
       <c r="Q15" t="n">
-        <v>211.1331237933485</v>
+        <v>211.0194153058858</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9420357851650608</v>
+        <v>0.9388819065949012</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7728278643703167</v>
+        <v>0.7795174735157495</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3961478641046539</v>
+        <v>0.7696307182846183</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8668133180023818</v>
+        <v>0.9914631467378017</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5724194327461247</v>
+        <v>0.9061313301178794</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3876069715019064</v>
+        <v>0.4086969720228392</v>
       </c>
       <c r="H16" t="n">
-        <v>1.519101116987194</v>
+        <v>1.474367669828867</v>
       </c>
       <c r="I16" t="n">
-        <v>1.211987496513592</v>
+        <v>2.453563752460085</v>
       </c>
       <c r="J16" t="n">
-        <v>0.134672197411812</v>
+        <v>0.08457070313720144</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6733298469627019</v>
+        <v>1.269067117857851</v>
       </c>
       <c r="L16" t="n">
-        <v>2.539647269570627</v>
+        <v>0.522605697823789</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6225808955484471</v>
+        <v>0.6392941201222166</v>
       </c>
       <c r="N16" t="n">
-        <v>1.033930272098501</v>
+        <v>1.035776444920058</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6490854531920666</v>
+        <v>0.6665101943370858</v>
       </c>
       <c r="P16" t="n">
-        <v>131.8955268255925</v>
+        <v>131.7895625944817</v>
       </c>
       <c r="Q16" t="n">
-        <v>211.1224554420255</v>
+        <v>211.0164912109147</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9416981793648723</v>
+        <v>0.9387933716156078</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7721997310149337</v>
+        <v>0.7794663098377963</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3832957399359174</v>
+        <v>0.7692500598027928</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8571596923207051</v>
+        <v>0.9914662938605032</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5611297520645246</v>
+        <v>0.9059825361032731</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3898645430422982</v>
+        <v>0.4092890058370398</v>
       </c>
       <c r="H17" t="n">
-        <v>1.523301447626928</v>
+        <v>1.474709801578928</v>
       </c>
       <c r="I17" t="n">
-        <v>1.237782907128564</v>
+        <v>2.457617981592193</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1444334960945569</v>
+        <v>0.08453952603112341</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6911082016115606</v>
+        <v>1.271078753811658</v>
       </c>
       <c r="L17" t="n">
-        <v>2.535525281538654</v>
+        <v>0.5214447471774823</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6243913380583511</v>
+        <v>0.6397569896742354</v>
       </c>
       <c r="N17" t="n">
-        <v>1.034127895005928</v>
+        <v>1.03582827027379</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6509729699877499</v>
+        <v>0.6669927692042061</v>
       </c>
       <c r="P17" t="n">
-        <v>131.883911851445</v>
+        <v>131.7866675134724</v>
       </c>
       <c r="Q17" t="n">
-        <v>211.110840467878</v>
+        <v>211.0135961299055</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9413320458616106</v>
+        <v>0.9387055054526507</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7715469645883516</v>
+        <v>0.779415463486565</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3702524452791607</v>
+        <v>0.7688726519561232</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8471344541843985</v>
+        <v>0.9914693918013548</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5495989682871909</v>
+        <v>0.9058350126057034</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3923128794644992</v>
+        <v>0.4098765672733204</v>
       </c>
       <c r="H18" t="n">
-        <v>1.527666499727196</v>
+        <v>1.475049811363737</v>
       </c>
       <c r="I18" t="n">
-        <v>1.26396201472399</v>
+        <v>2.461637589612792</v>
       </c>
       <c r="J18" t="n">
-        <v>0.154570552060988</v>
+        <v>0.08450883614715142</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7092662318654058</v>
+        <v>1.273073212879972</v>
       </c>
       <c r="L18" t="n">
-        <v>2.531347523601302</v>
+        <v>0.5202934037665454</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6263488480587309</v>
+        <v>0.6402160317215747</v>
       </c>
       <c r="N18" t="n">
-        <v>1.034342217056618</v>
+        <v>1.035879704125278</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6530138152414501</v>
+        <v>0.6674713536218487</v>
       </c>
       <c r="P18" t="n">
-        <v>131.8713911913085</v>
+        <v>131.783798440082</v>
       </c>
       <c r="Q18" t="n">
-        <v>211.0983198077415</v>
+        <v>211.010727056515</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9409385600784825</v>
+        <v>0.9386184579676553</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7708705615640222</v>
+        <v>0.779364958553915</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3570264502618936</v>
+        <v>0.7684991921576951</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8367542274171375</v>
+        <v>0.9914723655757183</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5378377321429137</v>
+        <v>0.905688998727077</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3949441207081124</v>
+        <v>0.4104586542063018</v>
       </c>
       <c r="H19" t="n">
-        <v>1.532189609865436</v>
+        <v>1.475387538080921</v>
       </c>
       <c r="I19" t="n">
-        <v>1.29050781896481</v>
+        <v>2.465615148676227</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1650665560713961</v>
+        <v>0.08447937632382239</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7277871655551175</v>
+        <v>1.275047262500025</v>
       </c>
       <c r="L19" t="n">
-        <v>2.52711320760644</v>
+        <v>0.51915456452342</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6284457977487894</v>
+        <v>0.6406704724008293</v>
       </c>
       <c r="N19" t="n">
-        <v>1.034572550197961</v>
+        <v>1.035930658750641</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6552000364210987</v>
+        <v>0.6679451407816411</v>
       </c>
       <c r="P19" t="n">
-        <v>131.8580219813002</v>
+        <v>131.7809601514632</v>
       </c>
       <c r="Q19" t="n">
-        <v>211.0849505977332</v>
+        <v>211.0078887678963</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9405186039848195</v>
+        <v>0.9385320234665735</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7701715015378688</v>
+        <v>0.7793147812563375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3436247275823521</v>
+        <v>0.7681287651386228</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8260359286075776</v>
+        <v>0.991475270210021</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5258560196827211</v>
+        <v>0.9055441541093118</v>
       </c>
       <c r="G20" t="n">
-        <v>0.397752369040157</v>
+        <v>0.4110366421130301</v>
       </c>
       <c r="H20" t="n">
-        <v>1.536864227479199</v>
+        <v>1.475723073900868</v>
       </c>
       <c r="I20" t="n">
-        <v>1.317406324996031</v>
+        <v>2.469560406916214</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1759044028556989</v>
+        <v>0.08445060143947256</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7466552929561984</v>
+        <v>1.277005504177843</v>
       </c>
       <c r="L20" t="n">
-        <v>2.52282692561807</v>
+        <v>0.518028400768444</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6306761205564684</v>
+        <v>0.6411213942094197</v>
       </c>
       <c r="N20" t="n">
-        <v>1.034818378155228</v>
+        <v>1.035981254556152</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6575253086881052</v>
+        <v>0.66841525926516</v>
       </c>
       <c r="P20" t="n">
-        <v>131.843851311357</v>
+        <v>131.7781458298003</v>
       </c>
       <c r="Q20" t="n">
-        <v>211.0707799277901</v>
+        <v>211.0050744462334</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9400732389751371</v>
+        <v>0.9384463518006375</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7694506544657234</v>
+        <v>0.7792649212196647</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3300560065600781</v>
+        <v>0.7677620106770632</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8149957914073439</v>
+        <v>0.9914780715001849</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5136644796798295</v>
+        <v>0.905400728022786</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4007305269106206</v>
+        <v>0.4116095289376257</v>
       </c>
       <c r="H21" t="n">
-        <v>1.541684535169831</v>
+        <v>1.476056488195682</v>
       </c>
       <c r="I21" t="n">
-        <v>1.344640012260039</v>
+        <v>2.473466550331844</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1870676776980734</v>
+        <v>0.08442285033826757</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7658538449790564</v>
+        <v>1.27894456787696</v>
       </c>
       <c r="L21" t="n">
-        <v>2.518487823718778</v>
+        <v>0.5169140172622797</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6330328008173199</v>
+        <v>0.6415680236246393</v>
       </c>
       <c r="N21" t="n">
-        <v>1.03507907962431</v>
+        <v>1.036031403824017</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6599823177066618</v>
+        <v>0.6688809026192358</v>
       </c>
       <c r="P21" t="n">
-        <v>131.8289321605745</v>
+        <v>131.7753602486484</v>
       </c>
       <c r="Q21" t="n">
-        <v>211.0558607770076</v>
+        <v>211.0022888650814</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9396033302832523</v>
+        <v>0.9383613812443603</v>
       </c>
       <c r="C22" t="n">
-        <v>0.768709047378014</v>
+        <v>0.7792153766094864</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3163277409341987</v>
+        <v>0.7673986732349094</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8036496453289618</v>
+        <v>0.9914807411760677</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5012730655977884</v>
+        <v>0.9052585800627081</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4038728084969849</v>
+        <v>0.4121777274387048</v>
       </c>
       <c r="H22" t="n">
-        <v>1.546643665180131</v>
+        <v>1.476387793232077</v>
       </c>
       <c r="I22" t="n">
-        <v>1.372193920407955</v>
+        <v>2.477336300549156</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1985403745294163</v>
+        <v>0.08439640307958512</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7853671474686857</v>
+        <v>1.28086635181437</v>
       </c>
       <c r="L22" t="n">
-        <v>2.514099203607324</v>
+        <v>0.5158112619456043</v>
       </c>
       <c r="M22" t="n">
-        <v>0.635509880723333</v>
+        <v>0.6420106910626215</v>
       </c>
       <c r="N22" t="n">
-        <v>1.035354148126877</v>
+        <v>1.036081142686228</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6625648520325362</v>
+        <v>0.6693424153265009</v>
       </c>
       <c r="P22" t="n">
-        <v>131.813310562087</v>
+        <v>131.7726012907412</v>
       </c>
       <c r="Q22" t="n">
-        <v>211.0402391785201</v>
+        <v>210.9995299071743</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9391098582152781</v>
+        <v>0.9382771438072351</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7679474093678185</v>
+        <v>0.7791661584750726</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3024480444444225</v>
+        <v>0.7670387867467718</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7920115761735627</v>
+        <v>0.9914834043936754</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4886914239046265</v>
+        <v>0.9051177988424366</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4071726584877575</v>
+        <v>0.4127410235686381</v>
       </c>
       <c r="H23" t="n">
-        <v>1.551736742061329</v>
+        <v>1.47671691512353</v>
       </c>
       <c r="I23" t="n">
-        <v>1.400051764408242</v>
+        <v>2.481169296145267</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2103082504407349</v>
+        <v>0.08437001980008219</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8051800097093738</v>
+        <v>1.282769657972675</v>
       </c>
       <c r="L23" t="n">
-        <v>2.509665803723058</v>
+        <v>0.5147199633061956</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6381008215695678</v>
+        <v>0.6424492381259691</v>
       </c>
       <c r="N23" t="n">
-        <v>1.035643009825203</v>
+        <v>1.036130452405521</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6652660945945823</v>
+        <v>0.6697996322462527</v>
       </c>
       <c r="P23" t="n">
-        <v>131.7970359223355</v>
+        <v>131.7698698885672</v>
       </c>
       <c r="Q23" t="n">
-        <v>211.0239645387686</v>
+        <v>210.9967985050002</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9385936299873032</v>
+        <v>0.9381935614035408</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7671667162157876</v>
+        <v>0.7791172734473653</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2884226515197348</v>
+        <v>0.7666820235472546</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7800979564081121</v>
+        <v>0.9914860038211216</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4759285139002913</v>
+        <v>0.9049782244941207</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4106246790252381</v>
+        <v>0.4132999394870042</v>
       </c>
       <c r="H24" t="n">
-        <v>1.556957240763721</v>
+        <v>1.477043809528904</v>
       </c>
       <c r="I24" t="n">
-        <v>1.428202034727659</v>
+        <v>2.484969026942835</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2223547503525709</v>
+        <v>0.08434426846055143</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8252783230990823</v>
+        <v>1.284656647701693</v>
       </c>
       <c r="L24" t="n">
-        <v>2.505186690923885</v>
+        <v>0.5136368982787579</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6408000304504036</v>
+        <v>0.6428840793541276</v>
       </c>
       <c r="N24" t="n">
-        <v>1.035945192202554</v>
+        <v>1.03617937869061</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6680802143856078</v>
+        <v>0.6702529855657393</v>
       </c>
       <c r="P24" t="n">
-        <v>131.7801513428345</v>
+        <v>131.7671634077574</v>
       </c>
       <c r="Q24" t="n">
-        <v>211.0070799592676</v>
+        <v>210.9940920241904</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9380555723507025</v>
+        <v>0.938110633491785</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7663676776395526</v>
+        <v>0.7790687186854572</v>
       </c>
       <c r="D25" t="n">
-        <v>0.274259228688429</v>
+        <v>0.7663285765901103</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7679219080941139</v>
+        <v>0.9914884083310921</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4629932975191724</v>
+        <v>0.9048398849789647</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4142226729187154</v>
+        <v>0.4138544788147625</v>
       </c>
       <c r="H25" t="n">
-        <v>1.562300415402238</v>
+        <v>1.477368495445358</v>
       </c>
       <c r="I25" t="n">
-        <v>1.456629343929647</v>
+        <v>2.488733437874748</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2346666058447578</v>
+        <v>0.08432044807935775</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8456479748872023</v>
+        <v>1.286526942977053</v>
       </c>
       <c r="L25" t="n">
-        <v>2.503380668676468</v>
+        <v>0.5125706024250252</v>
       </c>
       <c r="M25" t="n">
-        <v>0.643601330731001</v>
+        <v>0.6433152250761384</v>
       </c>
       <c r="N25" t="n">
-        <v>1.036260152770321</v>
+        <v>1.036227921858467</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6710007718186414</v>
+        <v>0.6707024860537307</v>
       </c>
       <c r="P25" t="n">
-        <v>131.7627031849173</v>
+        <v>131.76448173479</v>
       </c>
       <c r="Q25" t="n">
-        <v>210.9896318013503</v>
+        <v>210.9914103512231</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9374965236755108</v>
+        <v>0.9380285029257646</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7655512543092035</v>
+        <v>0.7790204833839205</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2599654077742937</v>
+        <v>0.7659787986657908</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7554979261756315</v>
+        <v>0.9914907525660942</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4498953333778545</v>
+        <v>0.9047029685887656</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4179610339839039</v>
+        <v>0.4144036862879182</v>
       </c>
       <c r="H26" t="n">
-        <v>1.567759841971567</v>
+        <v>1.477691045128837</v>
       </c>
       <c r="I26" t="n">
-        <v>1.485318374232818</v>
+        <v>2.492458771522232</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2472291603019411</v>
+        <v>0.08429722481472395</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8662739127015374</v>
+        <v>1.288377998168478</v>
       </c>
       <c r="L26" t="n">
-        <v>2.505023109949809</v>
+        <v>0.5115121334223176</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6464990595382981</v>
+        <v>0.6437419407557023</v>
       </c>
       <c r="N26" t="n">
-        <v>1.036587400775311</v>
+        <v>1.036275998287357</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6740218629403906</v>
+        <v>0.6711473679031971</v>
       </c>
       <c r="P26" t="n">
-        <v>131.7447341418737</v>
+        <v>131.761829385188</v>
       </c>
       <c r="Q26" t="n">
-        <v>210.9716627583067</v>
+        <v>210.9887580016211</v>
       </c>
     </row>
   </sheetData>
